--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H2">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06455833333333334</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N2">
-        <v>0.193675</v>
+        <v>0.018692</v>
       </c>
       <c r="O2">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P2">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q2">
-        <v>5.583294662700001</v>
+        <v>0.8938984794564444</v>
       </c>
       <c r="R2">
-        <v>50.24965196430001</v>
+        <v>8.045086315108</v>
       </c>
       <c r="S2">
-        <v>0.02734617107356887</v>
+        <v>0.1183365887314564</v>
       </c>
       <c r="T2">
-        <v>0.02734617107356888</v>
+        <v>0.1183365887314564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H3">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1519946666666667</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N3">
-        <v>0.455984</v>
+        <v>0.019792</v>
       </c>
       <c r="O3">
-        <v>0.5678321747988235</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P3">
-        <v>0.5678321747988234</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q3">
-        <v>13.145181533376</v>
+        <v>0.9465032476675556</v>
       </c>
       <c r="R3">
-        <v>118.306633800384</v>
+        <v>8.518529229008001</v>
       </c>
       <c r="S3">
-        <v>0.06438320108847413</v>
+        <v>0.1253005437712918</v>
       </c>
       <c r="T3">
-        <v>0.06438320108847415</v>
+        <v>0.1253005437712917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.484492</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H4">
-        <v>259.453476</v>
+        <v>473.562271</v>
       </c>
       <c r="I4">
-        <v>0.1133842074223504</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J4">
-        <v>0.1133842074223504</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05112233333333333</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N4">
-        <v>0.153367</v>
+        <v>0.018692</v>
       </c>
       <c r="O4">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P4">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q4">
-        <v>4.421289028188</v>
+        <v>0.9835362188368889</v>
       </c>
       <c r="R4">
-        <v>39.79160125369201</v>
+        <v>8.851825969532001</v>
       </c>
       <c r="S4">
-        <v>0.0216548352603074</v>
+        <v>0.1302030641127897</v>
       </c>
       <c r="T4">
-        <v>0.02165483526030741</v>
+        <v>0.1302030641127897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>473.562271</v>
       </c>
       <c r="I5">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J5">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06455833333333334</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N5">
-        <v>0.193675</v>
+        <v>0.019792</v>
       </c>
       <c r="O5">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P5">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q5">
-        <v>10.19079698176945</v>
+        <v>1.041416051959111</v>
       </c>
       <c r="R5">
-        <v>91.71717283592501</v>
+        <v>9.372744467632</v>
       </c>
       <c r="S5">
-        <v>0.04991305214486231</v>
+        <v>0.1378653458656288</v>
       </c>
       <c r="T5">
-        <v>0.04991305214486232</v>
+        <v>0.1378653458656288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.8540903333333</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H6">
-        <v>473.562271</v>
+        <v>218.787952</v>
       </c>
       <c r="I6">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J6">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1519946666666667</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N6">
-        <v>0.455984</v>
+        <v>0.018692</v>
       </c>
       <c r="O6">
-        <v>0.5678321747988235</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P6">
-        <v>0.5678321747988234</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q6">
-        <v>23.99297984218489</v>
+        <v>0.4543982665315556</v>
       </c>
       <c r="R6">
-        <v>215.936818579664</v>
+        <v>4.089584398784001</v>
       </c>
       <c r="S6">
-        <v>0.1175141508672926</v>
+        <v>0.06015441576713351</v>
       </c>
       <c r="T6">
-        <v>0.1175141508672926</v>
+        <v>0.06015441576713351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>157.8540903333333</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H7">
-        <v>473.562271</v>
+        <v>218.787952</v>
       </c>
       <c r="I7">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J7">
-        <v>0.206952258224759</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,33 +871,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05112233333333333</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N7">
-        <v>0.153367</v>
+        <v>0.019792</v>
       </c>
       <c r="O7">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P7">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q7">
-        <v>8.069869424050779</v>
+        <v>0.4811390162204445</v>
       </c>
       <c r="R7">
-        <v>72.628824816457</v>
+        <v>4.330251145984001</v>
       </c>
       <c r="S7">
-        <v>0.03952505521260409</v>
+        <v>0.06369442525482059</v>
       </c>
       <c r="T7">
-        <v>0.0395250552126041</v>
+        <v>0.06369442525482058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>107.1200406666667</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H8">
-        <v>321.360122</v>
+        <v>258.995716</v>
       </c>
       <c r="I8">
-        <v>0.1404381367013168</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J8">
-        <v>0.1404381367013169</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06455833333333334</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N8">
-        <v>0.193675</v>
+        <v>0.018692</v>
       </c>
       <c r="O8">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P8">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q8">
-        <v>6.91549129203889</v>
+        <v>0.5379053248302222</v>
       </c>
       <c r="R8">
-        <v>62.23942162835</v>
+        <v>4.841147923472001</v>
       </c>
       <c r="S8">
-        <v>0.03387107780523612</v>
+        <v>0.07120929575761298</v>
       </c>
       <c r="T8">
-        <v>0.03387107780523613</v>
+        <v>0.07120929575761296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>107.1200406666667</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H9">
-        <v>321.360122</v>
+        <v>258.995716</v>
       </c>
       <c r="I9">
-        <v>0.1404381367013168</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J9">
-        <v>0.1404381367013169</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1519946666666667</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N9">
-        <v>0.455984</v>
+        <v>0.019792</v>
       </c>
       <c r="O9">
-        <v>0.5678321747988235</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P9">
-        <v>0.5678321747988234</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q9">
-        <v>16.28167487444978</v>
+        <v>0.5695603567857779</v>
       </c>
       <c r="R9">
-        <v>146.535073870048</v>
+        <v>5.126043211072001</v>
       </c>
       <c r="S9">
-        <v>0.07974529258780322</v>
+        <v>0.07539987062030153</v>
       </c>
       <c r="T9">
-        <v>0.07974529258780323</v>
+        <v>0.07539987062030151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>107.1200406666667</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H10">
-        <v>321.360122</v>
+        <v>103.664405</v>
       </c>
       <c r="I10">
-        <v>0.1404381367013168</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J10">
-        <v>0.1404381367013169</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05112233333333333</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N10">
-        <v>0.153367</v>
+        <v>0.018692</v>
       </c>
       <c r="O10">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P10">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q10">
-        <v>5.476226425641555</v>
+        <v>0.2152994509177777</v>
       </c>
       <c r="R10">
-        <v>49.286037830774</v>
+        <v>1.93769505826</v>
       </c>
       <c r="S10">
-        <v>0.02682176630827751</v>
+        <v>0.02850189720968965</v>
       </c>
       <c r="T10">
-        <v>0.02682176630827752</v>
+        <v>0.02850189720968964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>270.499283</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H11">
-        <v>811.497849</v>
+        <v>103.664405</v>
       </c>
       <c r="I11">
-        <v>0.354634063310091</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J11">
-        <v>0.3546340633100911</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.06455833333333334</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N11">
-        <v>0.193675</v>
+        <v>0.019792</v>
       </c>
       <c r="O11">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P11">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q11">
-        <v>17.46298287834167</v>
+        <v>0.2279695448622222</v>
       </c>
       <c r="R11">
-        <v>157.166845905075</v>
+        <v>2.05172590376</v>
       </c>
       <c r="S11">
-        <v>0.08553116861917533</v>
+        <v>0.03017919695988538</v>
       </c>
       <c r="T11">
-        <v>0.08553116861917534</v>
+        <v>0.03017919695988538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>270.499283</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H12">
-        <v>811.497849</v>
+        <v>281.159469</v>
       </c>
       <c r="I12">
-        <v>0.354634063310091</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J12">
-        <v>0.3546340633100911</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1519946666666667</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N12">
-        <v>0.455984</v>
+        <v>0.018692</v>
       </c>
       <c r="O12">
-        <v>0.5678321747988235</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P12">
-        <v>0.5678321747988234</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q12">
-        <v>41.11444835315733</v>
+        <v>0.583936977172</v>
       </c>
       <c r="R12">
-        <v>370.030035178416</v>
+        <v>5.255432794548</v>
       </c>
       <c r="S12">
-        <v>0.2013726314271126</v>
+        <v>0.0773030847470636</v>
       </c>
       <c r="T12">
-        <v>0.2013726314271127</v>
+        <v>0.07730308474706359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>270.499283</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H13">
-        <v>811.497849</v>
+        <v>281.159469</v>
       </c>
       <c r="I13">
-        <v>0.354634063310091</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J13">
-        <v>0.3546340633100911</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,400 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05112233333333333</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N13">
-        <v>0.153367</v>
+        <v>0.019792</v>
       </c>
       <c r="O13">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P13">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q13">
-        <v>13.82855451195367</v>
+        <v>0.618300912272</v>
       </c>
       <c r="R13">
-        <v>124.456990607583</v>
+        <v>5.564708210448</v>
       </c>
       <c r="S13">
-        <v>0.06773026326380308</v>
+        <v>0.08185227120232628</v>
       </c>
       <c r="T13">
-        <v>0.06773026326380309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H14">
-        <v>109.785373</v>
-      </c>
-      <c r="I14">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J14">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.06455833333333334</v>
-      </c>
-      <c r="N14">
-        <v>0.193675</v>
-      </c>
-      <c r="O14">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="P14">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="Q14">
-        <v>2.362520235086111</v>
-      </c>
-      <c r="R14">
-        <v>21.262682115775</v>
-      </c>
-      <c r="S14">
-        <v>0.01157128298189988</v>
-      </c>
-      <c r="T14">
-        <v>0.01157128298189988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H15">
-        <v>109.785373</v>
-      </c>
-      <c r="I15">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J15">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.1519946666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.455984</v>
-      </c>
-      <c r="O15">
-        <v>0.5678321747988235</v>
-      </c>
-      <c r="P15">
-        <v>0.5678321747988234</v>
-      </c>
-      <c r="Q15">
-        <v>5.562263724670222</v>
-      </c>
-      <c r="R15">
-        <v>50.06037352203199</v>
-      </c>
-      <c r="S15">
-        <v>0.02724316457580294</v>
-      </c>
-      <c r="T15">
-        <v>0.02724316457580294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>36.59512433333333</v>
-      </c>
-      <c r="H16">
-        <v>109.785373</v>
-      </c>
-      <c r="I16">
-        <v>0.04797749367663937</v>
-      </c>
-      <c r="J16">
-        <v>0.04797749367663939</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.05112233333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.153367</v>
-      </c>
-      <c r="O16">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="P16">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="Q16">
-        <v>1.870828144543444</v>
-      </c>
-      <c r="R16">
-        <v>16.837453300891</v>
-      </c>
-      <c r="S16">
-        <v>0.009163046118936561</v>
-      </c>
-      <c r="T16">
-        <v>0.009163046118936563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H17">
-        <v>312.609107</v>
-      </c>
-      <c r="I17">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J17">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.06455833333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.193675</v>
-      </c>
-      <c r="O17">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="P17">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="Q17">
-        <v>6.72717431091389</v>
-      </c>
-      <c r="R17">
-        <v>60.544568798225</v>
-      </c>
-      <c r="S17">
-        <v>0.03294872842319366</v>
-      </c>
-      <c r="T17">
-        <v>0.03294872842319367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H18">
-        <v>312.609107</v>
-      </c>
-      <c r="I18">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J18">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.1519946666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.455984</v>
-      </c>
-      <c r="O18">
-        <v>0.5678321747988235</v>
-      </c>
-      <c r="P18">
-        <v>0.5678321747988234</v>
-      </c>
-      <c r="Q18">
-        <v>15.83830567180978</v>
-      </c>
-      <c r="R18">
-        <v>142.544751046288</v>
-      </c>
-      <c r="S18">
-        <v>0.07757373425233788</v>
-      </c>
-      <c r="T18">
-        <v>0.07757373425233791</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>104.2030356666667</v>
-      </c>
-      <c r="H19">
-        <v>312.609107</v>
-      </c>
-      <c r="I19">
-        <v>0.1366138406648432</v>
-      </c>
-      <c r="J19">
-        <v>0.1366138406648433</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05112233333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.153367</v>
-      </c>
-      <c r="O19">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="P19">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="Q19">
-        <v>5.327102323696555</v>
-      </c>
-      <c r="R19">
-        <v>47.943920913269</v>
-      </c>
-      <c r="S19">
-        <v>0.02609137798931169</v>
-      </c>
-      <c r="T19">
-        <v>0.0260913779893117</v>
+        <v>0.08185227120232627</v>
       </c>
     </row>
   </sheetData>
